--- a/biology/Zoologie/Callorhinchus_milii/Callorhinchus_milii.xlsx
+++ b/biology/Zoologie/Callorhinchus_milii/Callorhinchus_milii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chimère éléphant, Masca laboureur
 Callorhinchus milii, la Chimère éléphant ou le Masca laboureur, est une espèce de poissons cartilagineux de la famille des Callorhinchidae (sous-classe des chimères). Elle peut mesurer jusqu'à 125 cm de long. Il fait partie des poissons considérés comme fossiles vivants.
@@ -513,7 +525,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Chimère éléphant se rencontre au large des côtes d'Australie-Méridionale, de la Tasmanie et de la Nouvelle-Zélande, non loin des eaux côtières, aux abords de la plateforme continentale entre 200 et 500 mètres de profondeur.
 </t>
@@ -544,14 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callorhincus milii est facilement reconnaissable. Les yeux, le plus souvent verts, sont situés en haut de la tête. La bouche est placée derrière le museau. Cette chimère ne possède qu'une ouverture branchiale, en face de la nageoire pectorale. Ses nageoires pectorales sont longues et lui fournissent un moyen de locomotion. Ses deux nageoires dorsales sont très espacées. Une colonne vertébrale est située juste avant la première nageoire dorsale. Les organes de copulation des mâles, appelés ptérygopodes (claspers en anglais), sont situés près des nageoires pelviennes[1].
-Callorhincus milii peut mesurer jusqu'à 125 cm de longueur totale mais sa taille habituelle est d'environ 75 cm[2].
-Coloration
-Le corps est blanc argenté. Des marques sombres sont parfois présentes sur les nageoires et à l'arrière des yeux[1].
-Peau
-Son corps est lisse, dépourvu de denticules et d'épines[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callorhincus milii est facilement reconnaissable. Les yeux, le plus souvent verts, sont situés en haut de la tête. La bouche est placée derrière le museau. Cette chimère ne possède qu'une ouverture branchiale, en face de la nageoire pectorale. Ses nageoires pectorales sont longues et lui fournissent un moyen de locomotion. Ses deux nageoires dorsales sont très espacées. Une colonne vertébrale est située juste avant la première nageoire dorsale. Les organes de copulation des mâles, appelés ptérygopodes (claspers en anglais), sont situés près des nageoires pelviennes.
+Callorhincus milii peut mesurer jusqu'à 125 cm de longueur totale mais sa taille habituelle est d'environ 75 cm.
 </t>
         </is>
       </c>
@@ -577,10 +589,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Coloration</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corps est blanc argenté. Des marques sombres sont parfois présentes sur les nageoires et à l'arrière des yeux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Callorhinchus_milii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callorhinchus_milii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Peau</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son corps est lisse, dépourvu de denticules et d'épines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Callorhinchus_milii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callorhinchus_milii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Comportement et reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes migrent en eaux peu profondes pour pondre.
 Huit mois plus tard, les petits sortent de coquilles d'environ 15 cm, de couleur jaune d'or à l'aspect parcheminé.
@@ -589,35 +677,37 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Callorhinchus_milii</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Callorhinchus_milii</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Callorhinchus_milii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callorhinchus_milii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Callorhinchus milii Bory de Saint-Vincent, 1823[3],[4].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Masca laboureur[2] ou Chimère éléphant[5].
-Callorhinchus milii a pour synonymes[3] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Callorhinchus milii Bory de Saint-Vincent, 1823,.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Masca laboureur ou Chimère éléphant.
+Callorhinchus milii a pour synonymes :
 Callorhynchus australis Owen, 1854
 Callorhynchus dasycaudatus Colenso, 1879
 Callorhynchus milii Bory de Saint-Vincent, 1823
@@ -625,10 +715,80 @@
 Callorhynchus millii Bory de Saint-Vincent, 1823
 Callorhynchus tasmanius Richardson, 1840
 Callorynchus milii Bory de Saint-Vincent, 1823
-Étymologie
-Son épithète spécifique, milii, lui a été donnée en l'honneur de Pierre Bernard Milius (1773‒1829)[6].
-Publication originale
-Audouin et al., Dictionnaire classique d'histoire naturelle, vol. 3, Paris, Rey et Gravier ; Baudouin Frères, 1823, 592 p. (lire en ligne), p. 62.</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Callorhinchus_milii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callorhinchus_milii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, milii, lui a été donnée en l'honneur de Pierre Bernard Milius (1773‒1829).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Callorhinchus_milii</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callorhinchus_milii</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Audouin et al., Dictionnaire classique d'histoire naturelle, vol. 3, Paris, Rey et Gravier ; Baudouin Frères, 1823, 592 p. (lire en ligne), p. 62.</t>
         </is>
       </c>
     </row>
